--- a/Produciton Manager Dashboard/Production_Dashboard_Zones.xlsx
+++ b/Produciton Manager Dashboard/Production_Dashboard_Zones.xlsx
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>71</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="7">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>72</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="B41" s="5" t="n">
-        <v>72</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="42">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="B42" s="5" t="n">
-        <v>243</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="B76" s="5" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="B77" s="5" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B112" s="5" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="B147" s="5" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4868,7 +4868,7 @@
         <v/>
       </c>
       <c r="C27" s="4" t="n">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="D27" s="9">
         <f>B27-(C27*200)</f>
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
